--- a/medicine/Enfance/Jean-Jacques_Greif/Jean-Jacques_Greif.xlsx
+++ b/medicine/Enfance/Jean-Jacques_Greif/Jean-Jacques_Greif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Greif, né le 23 septembre 1944 à Paris, est un journaliste et écrivain français, notamment d'œuvres pour enfants et adolescents.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'École polytechnique (X1964), puis suit la publicité, puis comme journaliste chez Marie-Claire.
 Il est le frère du compositeur Olivier Greif (1950-2000).
@@ -543,14 +557,16 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Paradis du miel, Éditions des Loisirs, 1996.
 Moi, Marilyn, Éditions des Loisirs, coll. « Médium »,1998
 Le Ring de la mort. Paris : L'École des loisirs, coll. « Médium », 1998. réimpr. 04/2012, 154 p.  (ISBN 978-2-211-20548-1), 01/2016, 267 p.  (ISBN 978-2-211-22301-0). Inspiré du livre de M. Garbarz, Un survivant.
 Kama, Éditions L'École des loisirs, coll. « Médium », 1998
 Tout est relatif comme dit Einstein, Éditions L'École des loisirs, coll. « Médium », 1999
-Mes enfants, c'est la guerre, Éditions L'École des loisirs, coll. « Médium », 2002 Prix Bernard Versele 2004[1] 
+Mes enfants, c'est la guerre, Éditions L'École des loisirs, coll. « Médium », 2002 Prix Bernard Versele 2004 
 Nine eleven, Éditions L'École des loisirs, coll. « Médium », 2003
 Une nouvelle vie, Malvina, Éditions L'École des loisirs, coll. « Médium »
 Sans accent, Éditions L'École
@@ -583,7 +599,9 @@
           <t>Traduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'Île au trésor / Robert Louis Stevenson. Auch : Tristram, 09/2018.  (ISBN 978-2-36719-069-3)</t>
         </is>
@@ -613,9 +631,11 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Prix Bernard Versele 2004[1] pour Mes enfants, c'est la guerre</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prix Bernard Versele 2004 pour Mes enfants, c'est la guerre</t>
         </is>
       </c>
     </row>
